--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZUSA\ポートフォリオ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZUSA\Documents\GitHub\Create-My-Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF32ABE0-F100-4BBF-913E-56E9C7427F38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68889B54-2951-40A0-8AFA-95C2EB4B33D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{447BEACD-D5D7-4629-AFC0-AB10066B2746}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{447BEACD-D5D7-4629-AFC0-AB10066B2746}"/>
   </bookViews>
   <sheets>
     <sheet name="HOMEページ" sheetId="1" r:id="rId1"/>
     <sheet name="Profileページ" sheetId="2" r:id="rId2"/>
-    <sheet name="My Workページ" sheetId="3" r:id="rId3"/>
+    <sheet name="挨拶ページ" sheetId="4" r:id="rId3"/>
+    <sheet name="資格ページ" sheetId="5" r:id="rId4"/>
+    <sheet name="My Workページ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>※フリー画像を用いる。</t>
     <rPh sb="4" eb="6">
@@ -58,7 +60,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンテンツ</t>
+    <t>ヘッダー(タイトル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -70,24 +76,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>My Work</t>
+    <t>My work</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダー(タイトル)</t>
+    <t>経歴</t>
+    <rPh sb="0" eb="2">
+      <t>ケイレキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フッター</t>
+    <t>挨拶</t>
+    <rPh sb="0" eb="2">
+      <t>アイサツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2カラム形式にする予定</t>
-    <rPh sb="4" eb="6">
-      <t>ケイシキ</t>
+    <t>資格</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨテイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←フレックスボックス利用</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>News</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名1</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名2</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名3</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2カラム式</t>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←グローバルナビゲーション(全体に共通する目次)</t>
+  </si>
+  <si>
+    <t>←グローバルナビゲーション(全体に共通する目次)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←グローバルナビゲーション(全体に共通する目次)</t>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モクジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -233,13 +314,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +407,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -298,13 +444,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>463347</xdr:colOff>
+      <xdr:colOff>456997</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -337,7 +483,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1492250" y="1155700"/>
+          <a:off x="1485900" y="1155700"/>
           <a:ext cx="3517697" cy="1644650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -350,22 +496,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFD30B3-0CC7-42E0-B889-CAAB51B8017E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0147FEA7-0BAE-403D-BA3A-09CB51B76096}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -373,312 +519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="1174750"/>
-          <a:ext cx="952500" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>News</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A47362-9138-453B-A2DD-F0C1E04E8A58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="1212850"/>
-          <a:ext cx="1238250" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>顔写真</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160403</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10189FA-8C87-41DB-80FB-B8374EBB84A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3340100" y="1187450"/>
-          <a:ext cx="1562100" cy="1487553"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE906C4-0E35-44E0-9A94-CED632442A8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1720850" y="2895601"/>
-          <a:ext cx="3181350" cy="996950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52001A3-4D77-4593-AD9A-B6291A55CA1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1720850" y="4076701"/>
-          <a:ext cx="3175000" cy="958850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5015F7E-92D5-4481-92A6-C16BA46D8798}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3416300" y="1225550"/>
+          <a:off x="1485900" y="1155700"/>
           <a:ext cx="914400" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -708,104 +549,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>経歴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EBAF9C-AE07-4485-9F5F-7ACC4D630A02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1727200" y="4089400"/>
-          <a:ext cx="1428750" cy="311150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>スキル</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>資格</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>News</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:ln>
@@ -817,25 +566,318 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418897</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4AE0AC-DC7B-4562-8A47-55D2719BF44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1600200" y="1593850"/>
+          <a:ext cx="3517697" cy="1879600"/>
+          <a:chOff x="6261100" y="939800"/>
+          <a:chExt cx="3517697" cy="1498496"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="図 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0603D2-9744-42BF-9559-4C952CB07A83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
+              <a:srgbClr val="ED7D31">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:srgbClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6261100" y="939800"/>
+            <a:ext cx="3517697" cy="1498496"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10189FA-8C87-41DB-80FB-B8374EBB84A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:duotone>
+              <a:schemeClr val="accent2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8089900" y="1015999"/>
+            <a:ext cx="1562100" cy="1320801"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A47362-9138-453B-A2DD-F0C1E04E8A58}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6546850" y="1028700"/>
+            <a:ext cx="1238250" cy="1308100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>顔写真</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5015F7E-92D5-4481-92A6-C16BA46D8798}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8096250" y="1022350"/>
+            <a:ext cx="914400" cy="311150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:rPr>
+              <a:t>経歴</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DB312F-8EA3-4106-82B3-963896010CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="1143000"/>
+          <a:ext cx="3181350" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199BF2DD-AF9C-4378-A498-6F67D0F9477F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6F0329-FA6B-4CF6-9804-DFBA81C4D02F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1701800" y="2927350"/>
+          <a:off x="1727200" y="1143000"/>
           <a:ext cx="1225550" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -888,27 +930,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>412547</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>102838</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E44A140-F406-4D10-8CF5-A69DFAC0B5C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD76B3BD-F6A7-421A-8399-82441BD05067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +974,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="1193800"/>
-          <a:ext cx="3517697" cy="2566638"/>
+          <a:off x="1771650" y="1143000"/>
+          <a:ext cx="3181350" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,22 +987,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BAC531-AA0E-495A-BDC7-A8999273F9B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F0D6AE-8A7E-44B8-BD9E-71750B1D9E54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +1010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="1181100"/>
-          <a:ext cx="1282700" cy="730250"/>
+          <a:off x="1771650" y="1143000"/>
+          <a:ext cx="1428750" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,27 +1040,626 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>My Work</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t>資格</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新しいもの順に並べる</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412547</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9700D3-DE2E-4519-9D56-7B35315B4EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1581150" y="1079500"/>
+          <a:ext cx="3517697" cy="4070350"/>
+          <a:chOff x="1581150" y="1219200"/>
+          <a:chExt cx="3517697" cy="4279900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E770BA0-8514-4B7F-9A9E-D08220DCC13F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1581150" y="1219200"/>
+            <a:ext cx="3517697" cy="1422400"/>
+            <a:chOff x="1581150" y="1327150"/>
+            <a:chExt cx="3517697" cy="1504950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E44A140-F406-4D10-8CF5-A69DFAC0B5C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:duotone>
+                <a:schemeClr val="accent2">
+                  <a:shade val="45000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+                <a:prstClr val="white"/>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="1327150"/>
+              <a:ext cx="3517697" cy="1504950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11C83F5-336E-4501-873C-2B64A1AC5065}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1670050" y="1416050"/>
+              <a:ext cx="1238250" cy="1308100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>スクリーンショット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0207D82-970D-4915-81C4-79D67FAED579}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2965450" y="1422400"/>
+              <a:ext cx="1962150" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>概要説明</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C83591-65A7-4426-819F-7EDC26D7D5AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1581150" y="2641600"/>
+            <a:ext cx="3517697" cy="1428750"/>
+            <a:chOff x="1581150" y="1327150"/>
+            <a:chExt cx="3517697" cy="1504950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="図 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA663DD4-354E-461C-A14F-EA836877C519}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:duotone>
+                <a:srgbClr val="ED7D31">
+                  <a:shade val="45000"/>
+                  <a:satMod val="135000"/>
+                </a:srgbClr>
+                <a:prstClr val="white"/>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="1327150"/>
+              <a:ext cx="3517697" cy="1504950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="正方形/長方形 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D2B51-8267-41B7-9ECE-E56AD41C7061}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1670050" y="1416050"/>
+              <a:ext cx="1238250" cy="1308100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="4472C4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:shade val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>スクリーンショット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="テキスト ボックス 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382E8BBB-36E0-45A0-B366-776CF13817FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2965450" y="1422400"/>
+              <a:ext cx="1962150" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>概要説明</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="グループ化 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2205068-1F0D-4463-BBCF-6877F33119CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1581150" y="4070350"/>
+            <a:ext cx="3517697" cy="1428750"/>
+            <a:chOff x="1581150" y="1327150"/>
+            <a:chExt cx="3517697" cy="1504950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="図 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A465EFCE-6603-4932-8943-F3F0DAE07D29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:duotone>
+                <a:srgbClr val="ED7D31">
+                  <a:shade val="45000"/>
+                  <a:satMod val="135000"/>
+                </a:srgbClr>
+                <a:prstClr val="white"/>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="1327150"/>
+              <a:ext cx="3517697" cy="1504950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="正方形/長方形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2687336-A2BC-456E-A168-C9C6F63430FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1670050" y="1416050"/>
+              <a:ext cx="1238250" cy="1308100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="4472C4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:shade val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>スクリーンショット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="テキスト ボックス 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394EEDB9-D379-476C-959E-182274E78469}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2965450" y="1422400"/>
+              <a:ext cx="1962150" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>概要説明</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1321,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A901FCEA-366C-4285-9753-81167B259D58}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1333,13 +1974,20 @@
     <col min="2" max="2" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -1348,21 +1996,28 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
@@ -1375,7 +2030,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1386,7 +2041,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1394,10 +2049,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1408,10 +2061,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1419,9 +2070,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1535,7 +2184,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1544,7 +2193,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1557,7 +2208,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1584,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8580350-9FD9-4378-91D2-5DA27CFE1826}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1609,24 +2260,33 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1635,21 +2295,20 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1658,9 +2317,9 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1668,10 +2327,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1679,10 +2336,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1691,16 +2346,19 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1709,7 +2367,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1718,7 +2376,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1727,7 +2385,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1736,7 +2394,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1745,7 +2403,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1754,7 +2412,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1763,7 +2421,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1772,7 +2430,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1781,7 +2439,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1790,7 +2448,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1798,7 +2456,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1807,7 +2465,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1820,7 +2480,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1844,50 +2504,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3EAF79-D556-4612-AB27-10A5DD16CA02}">
-  <dimension ref="B2:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF9E48-E713-49EF-9989-7F3B93A4A97B}">
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1896,120 +2562,116 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2057,7 +2719,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2066,7 +2728,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2079,7 +2743,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2099,4 +2763,536 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C38F8D-B3F1-4BF1-9408-E0469EA33DDB}">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3EAF79-D556-4612-AB27-10A5DD16CA02}">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZUSA\ポートフォリオ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZUSA\Documents\GitHub\Create-My-Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF32ABE0-F100-4BBF-913E-56E9C7427F38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F22E5-A450-47B2-9876-318D3723EE6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{447BEACD-D5D7-4629-AFC0-AB10066B2746}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{447BEACD-D5D7-4629-AFC0-AB10066B2746}"/>
   </bookViews>
   <sheets>
     <sheet name="HOMEページ" sheetId="1" r:id="rId1"/>
     <sheet name="Profileページ" sheetId="2" r:id="rId2"/>
-    <sheet name="My Workページ" sheetId="3" r:id="rId3"/>
+    <sheet name="挨拶ページ" sheetId="4" r:id="rId3"/>
+    <sheet name="資格ページ" sheetId="5" r:id="rId4"/>
+    <sheet name="My Workページ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>※フリー画像を用いる。</t>
     <rPh sb="4" eb="6">
@@ -58,7 +60,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンテンツ</t>
+    <t>ヘッダー(タイトル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -70,24 +76,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>My Work</t>
+    <t>My work</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダー(タイトル)</t>
+    <t>経歴</t>
+    <rPh sb="0" eb="2">
+      <t>ケイレキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フッター</t>
+    <t>挨拶</t>
+    <rPh sb="0" eb="2">
+      <t>アイサツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2カラム形式にする予定</t>
-    <rPh sb="4" eb="6">
-      <t>ケイシキ</t>
+    <t>資格</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨテイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←フレックスボックス利用</t>
+    <rPh sb="10" eb="12">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>News</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名1</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名2</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品名3</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2カラム式</t>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←グローバルナビゲーション(全体に共通する目次)</t>
+  </si>
+  <si>
+    <t>←グローバルナビゲーション(全体に共通する目次)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←グローバルナビゲーション(全体に共通する目次)</t>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モクジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -233,13 +314,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +407,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -298,13 +444,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>463347</xdr:colOff>
+      <xdr:colOff>456997</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -337,7 +483,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1492250" y="1155700"/>
+          <a:off x="1485900" y="1155700"/>
           <a:ext cx="3517697" cy="1644650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -350,22 +496,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFD30B3-0CC7-42E0-B889-CAAB51B8017E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0147FEA7-0BAE-403D-BA3A-09CB51B76096}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -373,312 +519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="1174750"/>
-          <a:ext cx="952500" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>News</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A47362-9138-453B-A2DD-F0C1E04E8A58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="1212850"/>
-          <a:ext cx="1238250" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>顔写真</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160403</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10189FA-8C87-41DB-80FB-B8374EBB84A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3340100" y="1187450"/>
-          <a:ext cx="1562100" cy="1487553"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE906C4-0E35-44E0-9A94-CED632442A8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1720850" y="2895601"/>
-          <a:ext cx="3181350" cy="996950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52001A3-4D77-4593-AD9A-B6291A55CA1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent2">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1720850" y="4076701"/>
-          <a:ext cx="3175000" cy="958850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5015F7E-92D5-4481-92A6-C16BA46D8798}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3416300" y="1225550"/>
+          <a:off x="1485900" y="1155700"/>
           <a:ext cx="914400" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -708,104 +549,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>経歴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EBAF9C-AE07-4485-9F5F-7ACC4D630A02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1727200" y="4089400"/>
-          <a:ext cx="1428750" cy="311150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>スキル</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:ln>
                 <a:noFill/>
               </a:ln>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>資格</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>News</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:ln>
@@ -817,25 +566,318 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418897</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4AE0AC-DC7B-4562-8A47-55D2719BF44D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1600200" y="1593850"/>
+          <a:ext cx="3517697" cy="1879600"/>
+          <a:chOff x="6261100" y="939800"/>
+          <a:chExt cx="3517697" cy="1498496"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="図 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0603D2-9744-42BF-9559-4C952CB07A83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
+              <a:srgbClr val="ED7D31">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:srgbClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6261100" y="939800"/>
+            <a:ext cx="3517697" cy="1498496"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10189FA-8C87-41DB-80FB-B8374EBB84A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:duotone>
+              <a:schemeClr val="accent2">
+                <a:shade val="45000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+              <a:prstClr val="white"/>
+            </a:duotone>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8089900" y="1015999"/>
+            <a:ext cx="1562100" cy="1320801"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A47362-9138-453B-A2DD-F0C1E04E8A58}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6546850" y="1028700"/>
+            <a:ext cx="1238250" cy="1308100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>顔写真</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5015F7E-92D5-4481-92A6-C16BA46D8798}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8096250" y="1022350"/>
+            <a:ext cx="914400" cy="311150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:rPr>
+              <a:t>経歴</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DB312F-8EA3-4106-82B3-963896010CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727200" y="1143000"/>
+          <a:ext cx="3181350" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199BF2DD-AF9C-4378-A498-6F67D0F9477F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6F0329-FA6B-4CF6-9804-DFBA81C4D02F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1701800" y="2927350"/>
+          <a:off x="1727200" y="1143000"/>
           <a:ext cx="1225550" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -888,27 +930,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>412547</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>102838</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E44A140-F406-4D10-8CF5-A69DFAC0B5C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD76B3BD-F6A7-421A-8399-82441BD05067}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +974,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="1193800"/>
-          <a:ext cx="3517697" cy="2566638"/>
+          <a:off x="1771650" y="1143000"/>
+          <a:ext cx="3181350" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,22 +987,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>450850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BAC531-AA0E-495A-BDC7-A8999273F9B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F0D6AE-8A7E-44B8-BD9E-71750B1D9E54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +1010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="1181100"/>
-          <a:ext cx="1282700" cy="730250"/>
+          <a:off x="1771650" y="1143000"/>
+          <a:ext cx="1428750" cy="311150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,27 +1040,626 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>My Work</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:rPr>
+            <a:t>資格</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新しいもの順に並べる</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412547</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9700D3-DE2E-4519-9D56-7B35315B4EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1581150" y="1079500"/>
+          <a:ext cx="3517697" cy="4070350"/>
+          <a:chOff x="1581150" y="1219200"/>
+          <a:chExt cx="3517697" cy="4279900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E770BA0-8514-4B7F-9A9E-D08220DCC13F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1581150" y="1219200"/>
+            <a:ext cx="3517697" cy="1422400"/>
+            <a:chOff x="1581150" y="1327150"/>
+            <a:chExt cx="3517697" cy="1504950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E44A140-F406-4D10-8CF5-A69DFAC0B5C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:duotone>
+                <a:schemeClr val="accent2">
+                  <a:shade val="45000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+                <a:prstClr val="white"/>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="1327150"/>
+              <a:ext cx="3517697" cy="1504950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="正方形/長方形 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11C83F5-336E-4501-873C-2B64A1AC5065}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1670050" y="1416050"/>
+              <a:ext cx="1238250" cy="1308100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>スクリーンショット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0207D82-970D-4915-81C4-79D67FAED579}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2965450" y="1422400"/>
+              <a:ext cx="1962150" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>概要説明</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C83591-65A7-4426-819F-7EDC26D7D5AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1581150" y="2641600"/>
+            <a:ext cx="3517697" cy="1428750"/>
+            <a:chOff x="1581150" y="1327150"/>
+            <a:chExt cx="3517697" cy="1504950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="図 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA663DD4-354E-461C-A14F-EA836877C519}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:duotone>
+                <a:srgbClr val="ED7D31">
+                  <a:shade val="45000"/>
+                  <a:satMod val="135000"/>
+                </a:srgbClr>
+                <a:prstClr val="white"/>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="1327150"/>
+              <a:ext cx="3517697" cy="1504950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="正方形/長方形 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5D2B51-8267-41B7-9ECE-E56AD41C7061}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1670050" y="1416050"/>
+              <a:ext cx="1238250" cy="1308100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="4472C4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:shade val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>スクリーンショット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="テキスト ボックス 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382E8BBB-36E0-45A0-B366-776CF13817FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2965450" y="1422400"/>
+              <a:ext cx="1962150" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>概要説明</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="グループ化 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2205068-1F0D-4463-BBCF-6877F33119CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1581150" y="4070350"/>
+            <a:ext cx="3517697" cy="1428750"/>
+            <a:chOff x="1581150" y="1327150"/>
+            <a:chExt cx="3517697" cy="1504950"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="図 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A465EFCE-6603-4932-8943-F3F0DAE07D29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:duotone>
+                <a:srgbClr val="ED7D31">
+                  <a:shade val="45000"/>
+                  <a:satMod val="135000"/>
+                </a:srgbClr>
+                <a:prstClr val="white"/>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1581150" y="1327150"/>
+              <a:ext cx="3517697" cy="1504950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="正方形/長方形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2687336-A2BC-456E-A168-C9C6F63430FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1670050" y="1416050"/>
+              <a:ext cx="1238250" cy="1308100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="4472C4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:shade val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>スクリーンショット</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="テキスト ボックス 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394EEDB9-D379-476C-959E-182274E78469}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2965450" y="1422400"/>
+              <a:ext cx="1962150" cy="1295400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uLnTx/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>概要説明</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1321,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A901FCEA-366C-4285-9753-81167B259D58}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1333,13 +1974,20 @@
     <col min="2" max="2" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -1348,21 +1996,28 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
@@ -1375,7 +2030,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1386,7 +2041,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1394,10 +2049,8 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1408,10 +2061,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1419,9 +2070,7 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1535,7 +2184,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1544,7 +2193,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1557,7 +2208,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1584,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8580350-9FD9-4378-91D2-5DA27CFE1826}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1609,24 +2260,33 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1635,21 +2295,20 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1658,9 +2317,9 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1668,10 +2327,8 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1679,10 +2336,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1691,16 +2346,19 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1709,7 +2367,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1718,7 +2376,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1727,7 +2385,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1736,7 +2394,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1745,7 +2403,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1754,7 +2412,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1763,7 +2421,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1772,7 +2430,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1781,7 +2439,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1790,7 +2448,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1798,7 +2456,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1807,7 +2465,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1820,7 +2480,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1844,50 +2504,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3EAF79-D556-4612-AB27-10A5DD16CA02}">
-  <dimension ref="B2:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF9E48-E713-49EF-9989-7F3B93A4A97B}">
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1896,120 +2562,116 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2057,7 +2719,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2066,7 +2728,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2079,7 +2743,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2099,4 +2763,536 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C38F8D-B3F1-4BF1-9408-E0469EA33DDB}">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3EAF79-D556-4612-AB27-10A5DD16CA02}">
+  <dimension ref="B2:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="11"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/画面設計.xlsx
+++ b/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZUSA\Documents\GitHub\Create-My-Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F22E5-A450-47B2-9876-318D3723EE6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D03C46-8636-41C8-8513-7CC60ED3D491}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{447BEACD-D5D7-4629-AFC0-AB10066B2746}"/>
   </bookViews>
@@ -1965,7 +1965,7 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
